--- a/広島校高松校合同チーム/文書関連/コーディングルール.xlsx
+++ b/広島校高松校合同チーム/文書関連/コーディングルール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>関数の命名規則</t>
     <rPh sb="0" eb="2">
@@ -68,23 +68,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>キソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スネーク記法を使う。
-m_player_pos; draw_pos等。</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>トウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,6 +482,548 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>メイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント文について</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コードを見ればわかる事は、コメント文には記載しない。
+コメントの情報量を圧縮する。
+ただし、感じたニュアンスや感想は記載する。（将来的な目標や現在の問題や不安点など)
+感触など。
+例:
+//プレイヤーの位置を代入
+draw_pos = m_player_pos
+↑こういうのはコードを見ればわかるので記載が不要。
+/*
+関数分けがまだできてない気がするので全体的にわかりにくいかも
+前提クラスを作って簡潔にしたほうがいいかも
+*/
+class Player{
+};
+</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アッシュク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>ショウライテキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>フアン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カンショク</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="181" eb="184">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>カンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者の部分について</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、誰が更新したかわかりやすいように、各ヘッダーに更新履歴と更新者をかいたログを用意する。
+ログはヘッダーの下に記載する。</t>
+    <rPh sb="3" eb="4">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスの継承について</t>
+    <rPh sb="4" eb="6">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">何かのクラスを継承したクラスの場合
+親クラスがわかりやすいようにクラス名を命名する。
+ただしTaskクラスの継承などにおいては、考慮しなくともよい。
+親クラス
+CCharacter.h
+子クラス
+CCharacterPlayer.h
+また。親クラスで実装すべき内容(多くの項目が共通している項目)に関しては親クラスが持ち
+子クラスが持つのはそのクラス独自の仕様である。
+</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マクロについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#define DEFAULT_WIDTH (1000)
+のように、全て大文字で表記する。
+また、()で囲む。
+マクロ以外での実装が可能な場合は、
+マクロ以外で実装できると良い。
+</t>
+    <rPh sb="34" eb="35">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジックナンバーについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジックナンバーとなる定数はなるべく避ける。
+m_pos = Vector(100,100)など。
+この場合、マクロを用意してわかりやすくするか、どこか定数をまとめた関数から引っ張ってくる形にする。
+#define DEFAULT_PLAYER_POS Vector(100,100)
+m_pos = DEFAULT_PLAYER_POS
+もしくは
+m_pos = GetDefaultValue(ePlayerPos);</t>
+    <rPh sb="11" eb="13">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void型とbool(int)型の使いどころ</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">もし条件によって実行しない場合がある関数は
+bool型やint型を用いることも考慮する。
+また、条件によって実行する関数の場合は、
+わかりやすい命名も必要に応じて用いる。
+//
+//プレイヤーが死んでいるときだけ実行する関数
+//呼ばれてもプレイヤーが生きているなら実行されない
+void IsDeadProcess();
+//それならbool型で実行されたか返すのもあり(使うか使わないか//はおいといて)
+bool IsDeadProcess();
+もし処理を実行したなら trueを返す。のようにすると
+若干使い勝手が良い。
+また、処理の内容が複数に分岐する場合どういう処理をしたかを返すなどをするとデバッグしやすかったりもする。
+(エラー値返す)
+</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ガッテ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="327" eb="328">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数分けについて</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一連の内容1つ1つは1つの関数にまとめる。
+//重力の追加
+m_pos.y += GRAVITY;
+//死んでいるなら削除
+if(m_is_dead == true) SetKill();
+↓
+Gravity();
+CheckIsDead();
+</t>
+    <rPh sb="0" eb="2">
+      <t>イチレン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,6 +1045,9 @@
 Input
 入力処理を表す。
 InputMove();
+Check
+確認処理を表す。
+CheckIsDead();
 </t>
     <rPh sb="9" eb="10">
       <t>ナニ</t>
@@ -590,504 +1118,140 @@
     <rPh sb="239" eb="240">
       <t>アラワ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント文について</t>
-    <rPh sb="4" eb="5">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">コードを見ればわかる事は、コメント文には記載しない。
-コメントの情報量を圧縮する。
-ただし、感じたニュアンスや感想は記載する。（将来的な目標や現在の問題や不安点など)
-感触など。
-例:
-//プレイヤーの位置を代入
-draw_pos = m_player_pos
-↑こういうのはコードを見ればわかるので記載が不要。
-/*
-関数分けがまだできてない気がするので全体的にわかりにくいかも
-前提クラスを作って簡潔にしたほうがいいかも
-*/
-class Player{
-};
+    <rPh sb="263" eb="265">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">スネーク記法を使う。
+m_player_pos; draw_pos等。
+暗黙的な変換がしにくいものは特に、型名がわかるようにする。
+char型配列 _str m_title_text_str;
+添え字を示したりアドレスを示す場合
+_adなどの語句を用いる。
+m_str_ad;
+bool型の場合
+is_などのような語句を用いる。(できれば肯定系の方が良い)
+m_is_dead,
+実行中であることを示す場合
+m_is_moving;
+m_is_move_now;
+などの語句を用いることを検討する。
+個数を示す場合
+num
+例:m_item_num;
 </t>
     <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>アッシュク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>ショウライテキ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>フアン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>カンショク</t>
-    </rPh>
-    <rPh sb="91" eb="92">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>アンモクテキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カタメイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ゴク</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ゴク</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="194" eb="197">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ゴク</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
       <t>レイ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ダイニュウ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="181" eb="184">
-      <t>ゼンタイテキ</t>
-    </rPh>
-    <rPh sb="194" eb="196">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="200" eb="201">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>カンケツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者の部分について</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>また、誰が更新したかわかりやすいように、各ヘッダーに更新履歴と更新者をかいたログを用意する。
-ログはヘッダーの下に記載する。</t>
-    <rPh sb="3" eb="4">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>コウシンシャ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラスの継承について</t>
-    <rPh sb="4" eb="6">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">何かのクラスを継承したクラスの場合
-親クラスがわかりやすいようにクラス名を命名する。
-ただしTaskクラスの継承などにおいては、考慮しなくともよい。
-親クラス
-CCharacter.h
-子クラス
-CCharacterPlayer.h
-また。親クラスで実装すべき内容(多くの項目が共通している項目)に関しては親クラスが持ち
-子クラスが持つのはそのクラス独自の仕様である。
-</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>メイメイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>オヤ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>ドクジ</t>
-    </rPh>
-    <rPh sb="180" eb="182">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マクロについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">#define DEFAULT_WIDTH (1000)
-のように、全て大文字で表記する。
-また、()で囲む。
-マクロ以外での実装が可能な場合は、
-マクロ以外で実装できると良い。
-</t>
-    <rPh sb="34" eb="35">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>オオモジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マジックナンバーについて</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マジックナンバーとなる定数はなるべく避ける。
-m_pos = Vector(100,100)など。
-この場合、マクロを用意してわかりやすくするか、どこか定数をまとめた関数から引っ張ってくる形にする。
-#define DEFAULT_PLAYER_POS Vector(100,100)
-m_pos = DEFAULT_PLAYER_POS
-もしくは
-m_pos = GetDefaultValue(ePlayerPos);</t>
-    <rPh sb="11" eb="13">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>パ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>カタチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>void型とbool(int)型の使いどころ</t>
-    <rPh sb="4" eb="5">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">もし条件によって実行しない場合がある関数は
-bool型やint型を用いることも考慮する。
-また、条件によって実行する関数の場合は、
-わかりやすい命名も必要に応じて用いる。
-//
-//プレイヤーが死んでいるときだけ実行する関数
-//呼ばれてもプレイヤーが生きているなら実行されない
-void IsDeadProcess();
-//それならbool型で実行されたか返すのもあり(使うか使わないか//はおいといて)
-bool IsDeadProcess();
-もし処理を実行したなら trueを返す。のようにすると
-若干使い勝手が良い。
-また、処理の内容が複数に分岐する場合どういう処理をしたかを返すなどをするとデバッグしやすかったりもする。
-(エラー値返す)
-</t>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>メイメイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="256" eb="258">
-      <t>ジャッカン</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>ガッテ</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="272" eb="274">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="275" eb="277">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>ブンキ</t>
-    </rPh>
-    <rPh sb="285" eb="287">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="298" eb="299">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="326" eb="327">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="327" eb="328">
-      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1417,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1447,137 +1611,145 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="147" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="225" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="281.25" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="75" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="356.25" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="393.75" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="318.75" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="225" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
